--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">Résultat </t>
   </si>
   <si>
-    <t>Protoclole de test</t>
-  </si>
-  <si>
     <t>Gabriel Strano</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>nouvelle ligne contenant le code 0002</t>
   </si>
   <si>
-    <t>nouvelle ligne contenant le code 0003</t>
-  </si>
-  <si>
     <t>quand deux utilisateurs  sont en discussion le nombre de message non-lus doit être à zéros</t>
   </si>
   <si>
@@ -112,12 +106,27 @@
   </si>
   <si>
     <t>affichage du nouveau message</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Protocole de test</t>
+  </si>
+  <si>
+    <t>se connecter avec le même utilisateur en même temps</t>
+  </si>
+  <si>
+    <t>Impossible de se connecter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,17 +260,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,6 +284,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,13 +600,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
@@ -603,32 +615,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -636,263 +648,277 @@
       <c r="A3" s="10">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42534</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
-        <v>42534</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12">
-        <v>42534</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42534</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
